--- a/dist/alissa.xlsx
+++ b/dist/alissa.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="266">
   <si>
     <t>alissa</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Alissa Interpret</t>
   </si>
   <si>
-    <t>Information for interacting with the Alissa Interpret API and variant exports (v0.9.0, 2023-01-26)</t>
+    <t>Information for interacting with the Alissa Interpret API and variant exports (v0.9.2, 2023-02-07)</t>
   </si>
   <si>
     <t>patients</t>
@@ -208,6 +208,24 @@
     <t>variantAssessmentNotes</t>
   </si>
   <si>
+    <t>thirdPartyStatus</t>
+  </si>
+  <si>
+    <t>alleleType</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>cnv</t>
+  </si>
+  <si>
+    <t>cdna</t>
+  </si>
+  <si>
+    <t>databaseReferences</t>
+  </si>
+  <si>
     <t>databaseReferences_dbSNP</t>
   </si>
   <si>
@@ -229,6 +247,9 @@
     <t>customFields</t>
   </si>
   <si>
+    <t>externalDatabases</t>
+  </si>
+  <si>
     <t>_1000_genomes_phase_1_allele_frequency_African_1000Gp1_FreqAFR</t>
   </si>
   <si>
@@ -604,22 +625,79 @@
     <t>platformDatasets</t>
   </si>
   <si>
-    <t>thirdPartyStatus</t>
-  </si>
-  <si>
-    <t>alleleType</t>
-  </si>
-  <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t>cnv</t>
-  </si>
-  <si>
-    <t>cdna</t>
+    <t>_BLOSUM45_BLOSUM45</t>
+  </si>
+  <si>
+    <t>_BLOSUM62_BLOSUM62</t>
+  </si>
+  <si>
+    <t>_BLOSUM80_BLOSUM80</t>
+  </si>
+  <si>
+    <t>_Effect_codingEffect</t>
+  </si>
+  <si>
+    <t>_Exon_exon</t>
+  </si>
+  <si>
+    <t>_Gene_ensemblGene</t>
+  </si>
+  <si>
+    <t>_Gene_gene</t>
+  </si>
+  <si>
+    <t>_HGVS_cDNA_level_nomenclature_fullCNomen</t>
+  </si>
+  <si>
+    <t>_HGVS_genomic_level_nomenclature_fullGNomen</t>
+  </si>
+  <si>
+    <t>_HGVS_protein_level_nomenclature_fullPNomen</t>
+  </si>
+  <si>
+    <t>_HGVS_protein_level_nomenclature_pNomen3LetterAA</t>
+  </si>
+  <si>
+    <t>_Location_varLocation</t>
+  </si>
+  <si>
+    <t>_Location_varLocationMito</t>
+  </si>
+  <si>
+    <t>_Nearest_splice_site_type_nearestSSType</t>
+  </si>
+  <si>
+    <t>_Positions_from_nearest_splice_site_distNearestSS</t>
+  </si>
+  <si>
+    <t>_Protein_pNomen</t>
+  </si>
+  <si>
+    <t>_RefSeqGene_refSeqGene</t>
+  </si>
+  <si>
+    <t>_Reference_amino_acid_wtAA_1</t>
+  </si>
+  <si>
+    <t>_Strand_strand</t>
+  </si>
+  <si>
+    <t>_Sum_of_exon_lengths_transLength</t>
+  </si>
+  <si>
+    <t>_Type_varType</t>
+  </si>
+  <si>
+    <t>_Variant_amino_acid_varAA_1</t>
+  </si>
+  <si>
+    <t>_cDNA_cNomen</t>
   </si>
   <si>
     <t>_id</t>
+  </si>
+  <si>
+    <t>api</t>
   </si>
   <si>
     <t>string</t>
@@ -1104,13 +1182,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1139,16 +1217,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1186,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K225"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1194,37 +1272,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1247,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1264,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1281,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -1298,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -1315,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1332,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -1349,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -1366,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -1386,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1406,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1426,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1446,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -1463,13 +1541,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1483,13 +1561,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1503,13 +1581,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1523,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1543,13 +1621,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1563,13 +1641,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1583,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1600,13 +1678,13 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1620,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1640,13 +1718,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1660,13 +1738,13 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1680,13 +1758,13 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1700,13 +1778,13 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1720,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1740,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1760,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1777,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -1794,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -1811,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -1828,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -1845,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -1862,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -1879,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -1896,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -1913,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -1930,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -1947,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -1964,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -1981,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -1998,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -2015,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
@@ -2032,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -2049,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -2066,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -2083,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2100,13 +2178,13 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2117,13 +2195,13 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2134,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2151,13 +2229,13 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2168,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2185,13 +2263,13 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2202,13 +2280,13 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2219,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2236,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2253,13 +2331,13 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2270,13 +2348,13 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2287,13 +2365,13 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2304,13 +2382,13 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2321,13 +2399,16 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2338,13 +2419,16 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2355,13 +2439,16 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2372,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2389,13 +2476,13 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2406,13 +2493,13 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2423,13 +2510,13 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2440,13 +2527,13 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="H69" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2457,13 +2544,16 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2474,13 +2564,16 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2491,13 +2584,16 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2508,13 +2604,16 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -2525,13 +2624,16 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2542,13 +2644,16 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -2559,13 +2664,16 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -2576,13 +2684,16 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H77" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2593,13 +2704,16 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -2610,13 +2724,16 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -2627,13 +2744,16 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2644,13 +2764,16 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -2661,13 +2784,16 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -2678,13 +2804,16 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -2695,13 +2824,16 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -2712,13 +2844,16 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2729,13 +2864,16 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -2746,13 +2884,16 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -2763,13 +2904,16 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -2780,13 +2924,16 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -2797,13 +2944,16 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -2814,13 +2964,16 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -2831,13 +2984,16 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -2848,13 +3004,16 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -2865,13 +3024,16 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -2882,13 +3044,16 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -2899,13 +3064,16 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -2916,13 +3084,16 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -2933,13 +3104,16 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -2950,13 +3124,16 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -2967,13 +3144,16 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -2984,13 +3164,16 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3001,13 +3184,16 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -3018,13 +3204,16 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -3035,13 +3224,16 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -3052,13 +3244,16 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H105" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -3069,13 +3264,16 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H106" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -3086,13 +3284,16 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H107" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -3103,13 +3304,16 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H108" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -3120,13 +3324,16 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H109" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -3137,13 +3344,16 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H110" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -3154,13 +3364,16 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H111" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -3171,13 +3384,16 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H112" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -3188,13 +3404,16 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -3205,13 +3424,16 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H114" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -3222,13 +3444,16 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H115" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -3239,13 +3464,16 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -3256,13 +3484,16 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H117" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -3273,13 +3504,16 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H118" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -3290,13 +3524,16 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -3307,13 +3544,16 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H120" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -3324,13 +3564,16 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H121" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -3341,13 +3584,16 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H122" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -3358,13 +3604,16 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H123" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -3375,13 +3624,16 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H124" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -3392,13 +3644,16 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H125" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -3409,13 +3664,16 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H126" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -3426,13 +3684,16 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H127" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -3443,13 +3704,16 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H128" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -3460,13 +3724,16 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H129" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -3477,13 +3744,16 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H130" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -3494,13 +3764,16 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H131" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -3511,13 +3784,16 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H132" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -3528,13 +3804,16 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H133" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -3545,13 +3824,16 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H134" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -3562,13 +3844,16 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H135" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -3579,13 +3864,16 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H136" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -3596,13 +3884,16 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H137" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -3613,13 +3904,16 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H138" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -3630,13 +3924,16 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H139" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3647,13 +3944,16 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H140" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -3664,13 +3964,16 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H141" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -3681,13 +3984,16 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H142" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -3698,13 +4004,16 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H143" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -3715,13 +4024,16 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H144" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -3732,13 +4044,16 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H145" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -3749,13 +4064,16 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H146" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -3766,13 +4084,16 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H147" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -3783,13 +4104,16 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H148" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -3800,13 +4124,16 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H149" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -3817,13 +4144,16 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H150" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -3834,13 +4164,16 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H151" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -3851,13 +4184,16 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H152" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -3868,13 +4204,16 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H153" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -3885,13 +4224,16 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="H154" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -3902,13 +4244,16 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -3919,13 +4264,16 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H156" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -3936,13 +4284,16 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H157" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -3953,13 +4304,16 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H158" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -3970,13 +4324,16 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H159" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -3987,13 +4344,16 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H160" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -4004,13 +4364,16 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H161" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -4021,13 +4384,16 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H162" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -4038,13 +4404,16 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H163" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -4055,13 +4424,16 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H164" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -4072,13 +4444,16 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H165" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -4089,13 +4464,16 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H166" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -4106,13 +4484,16 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H167" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -4123,13 +4504,16 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H168" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -4140,13 +4524,16 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H169" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -4157,13 +4544,16 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H170" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -4174,13 +4564,16 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H171" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -4191,13 +4584,16 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H172" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -4208,13 +4604,16 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H173" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -4225,13 +4624,16 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H174" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -4242,13 +4644,16 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H175" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -4259,13 +4664,16 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H176" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -4276,13 +4684,16 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H177" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -4293,13 +4704,16 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H178" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -4310,13 +4724,16 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H179" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -4327,13 +4744,16 @@
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H180" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -4344,13 +4764,16 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H181" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -4361,13 +4784,16 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H182" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -4378,13 +4804,16 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H183" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -4395,13 +4824,16 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H184" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -4412,13 +4844,16 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H185" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -4429,13 +4864,16 @@
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H186" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -4446,13 +4884,16 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H187" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -4463,13 +4904,16 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H188" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -4480,13 +4924,16 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H189" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -4497,13 +4944,16 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H190" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -4514,13 +4964,16 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H191" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -4531,42 +4984,679 @@
         <v>1</v>
       </c>
       <c r="G192" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="H192" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="I192" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>10</v>
       </c>
       <c r="B193" t="s">
         <v>200</v>
       </c>
-      <c r="C193" t="b">
-        <v>1</v>
-      </c>
-      <c r="D193" t="b">
-        <v>1</v>
-      </c>
       <c r="E193" t="b">
+        <v>1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>227</v>
+      </c>
+      <c r="H193" t="b">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
+        <v>201</v>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+      <c r="G194" t="s">
+        <v>228</v>
+      </c>
+      <c r="H194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" t="s">
+        <v>202</v>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
+      </c>
+      <c r="G195" t="s">
+        <v>227</v>
+      </c>
+      <c r="H195" t="b">
+        <v>1</v>
+      </c>
+      <c r="I195" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" t="s">
+        <v>203</v>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
+      <c r="G196" t="s">
+        <v>227</v>
+      </c>
+      <c r="H196" t="b">
+        <v>1</v>
+      </c>
+      <c r="I196" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" t="s">
+        <v>204</v>
+      </c>
+      <c r="E197" t="b">
+        <v>1</v>
+      </c>
+      <c r="G197" t="s">
+        <v>227</v>
+      </c>
+      <c r="H197" t="b">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" t="s">
+        <v>205</v>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
+      </c>
+      <c r="G198" t="s">
+        <v>227</v>
+      </c>
+      <c r="H198" t="b">
+        <v>1</v>
+      </c>
+      <c r="I198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" t="s">
+        <v>206</v>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
+      </c>
+      <c r="G199" t="s">
+        <v>227</v>
+      </c>
+      <c r="H199" t="b">
+        <v>1</v>
+      </c>
+      <c r="I199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>207</v>
+      </c>
+      <c r="E200" t="b">
+        <v>1</v>
+      </c>
+      <c r="G200" t="s">
+        <v>227</v>
+      </c>
+      <c r="H200" t="b">
+        <v>1</v>
+      </c>
+      <c r="I200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>208</v>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
+      </c>
+      <c r="G201" t="s">
+        <v>227</v>
+      </c>
+      <c r="H201" t="b">
+        <v>1</v>
+      </c>
+      <c r="I201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>209</v>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>227</v>
+      </c>
+      <c r="H202" t="b">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>210</v>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>227</v>
+      </c>
+      <c r="H203" t="b">
+        <v>1</v>
+      </c>
+      <c r="I203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>211</v>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
+      <c r="G204" t="s">
+        <v>227</v>
+      </c>
+      <c r="H204" t="b">
+        <v>1</v>
+      </c>
+      <c r="I204" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>212</v>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
+      <c r="G205" t="s">
+        <v>227</v>
+      </c>
+      <c r="H205" t="b">
+        <v>1</v>
+      </c>
+      <c r="I205" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>213</v>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+      <c r="G206" t="s">
+        <v>227</v>
+      </c>
+      <c r="H206" t="b">
+        <v>1</v>
+      </c>
+      <c r="I206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s">
+        <v>214</v>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>227</v>
+      </c>
+      <c r="H207" t="b">
+        <v>1</v>
+      </c>
+      <c r="I207" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>215</v>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
+      </c>
+      <c r="G208" t="s">
+        <v>227</v>
+      </c>
+      <c r="H208" t="b">
+        <v>1</v>
+      </c>
+      <c r="I208" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>216</v>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
+      </c>
+      <c r="G209" t="s">
+        <v>227</v>
+      </c>
+      <c r="H209" t="b">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>217</v>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
+      <c r="G210" t="s">
+        <v>227</v>
+      </c>
+      <c r="H210" t="b">
+        <v>1</v>
+      </c>
+      <c r="I210" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>218</v>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
+      </c>
+      <c r="G211" t="s">
+        <v>227</v>
+      </c>
+      <c r="H211" t="b">
+        <v>1</v>
+      </c>
+      <c r="I211" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>219</v>
+      </c>
+      <c r="E212" t="b">
+        <v>1</v>
+      </c>
+      <c r="G212" t="s">
+        <v>227</v>
+      </c>
+      <c r="H212" t="b">
+        <v>1</v>
+      </c>
+      <c r="I212" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>220</v>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
+      </c>
+      <c r="G213" t="s">
+        <v>227</v>
+      </c>
+      <c r="H213" t="b">
+        <v>1</v>
+      </c>
+      <c r="I213" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>221</v>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s">
+        <v>227</v>
+      </c>
+      <c r="H214" t="b">
+        <v>1</v>
+      </c>
+      <c r="I214" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>222</v>
+      </c>
+      <c r="E215" t="b">
+        <v>1</v>
+      </c>
+      <c r="G215" t="s">
+        <v>227</v>
+      </c>
+      <c r="H215" t="b">
+        <v>1</v>
+      </c>
+      <c r="I215" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>223</v>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
+      </c>
+      <c r="G216" t="s">
+        <v>227</v>
+      </c>
+      <c r="H216" t="b">
+        <v>1</v>
+      </c>
+      <c r="I216" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>224</v>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
+      </c>
+      <c r="G217" t="s">
+        <v>227</v>
+      </c>
+      <c r="H217" t="b">
+        <v>1</v>
+      </c>
+      <c r="I217" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>225</v>
+      </c>
+      <c r="C218" t="b">
+        <v>1</v>
+      </c>
+      <c r="D218" t="b">
+        <v>1</v>
+      </c>
+      <c r="E218" t="b">
         <v>0</v>
       </c>
-      <c r="F193" t="b">
-        <v>1</v>
-      </c>
-      <c r="G193" t="s">
-        <v>201</v>
-      </c>
-      <c r="H193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="s">
-        <v>216</v>
-      </c>
-      <c r="K193" t="s">
-        <v>217</v>
+      <c r="F218" t="b">
+        <v>1</v>
+      </c>
+      <c r="G218" t="s">
+        <v>227</v>
+      </c>
+      <c r="H218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>242</v>
+      </c>
+      <c r="K218" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s">
+        <v>226</v>
+      </c>
+      <c r="E219" t="b">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
+        <v>228</v>
+      </c>
+      <c r="H219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
+      </c>
+      <c r="G220" t="s">
+        <v>227</v>
+      </c>
+      <c r="H220" t="b">
+        <v>1</v>
+      </c>
+      <c r="I220" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
+      </c>
+      <c r="G221" t="s">
+        <v>227</v>
+      </c>
+      <c r="H221" t="b">
+        <v>1</v>
+      </c>
+      <c r="I221" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
+      </c>
+      <c r="G222" t="s">
+        <v>229</v>
+      </c>
+      <c r="H222" t="b">
+        <v>1</v>
+      </c>
+      <c r="I222" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
+      </c>
+      <c r="G223" t="s">
+        <v>227</v>
+      </c>
+      <c r="H223" t="b">
+        <v>1</v>
+      </c>
+      <c r="I223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
+      </c>
+      <c r="G224" t="s">
+        <v>227</v>
+      </c>
+      <c r="H224" t="b">
+        <v>1</v>
+      </c>
+      <c r="I224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>21</v>
+      </c>
+      <c r="E225" t="b">
+        <v>1</v>
+      </c>
+      <c r="G225" t="s">
+        <v>230</v>
+      </c>
+      <c r="H225" t="b">
+        <v>1</v>
+      </c>
+      <c r="I225" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4584,42 +5674,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
